--- a/indigoData/ecoli_bliss.xlsx
+++ b/indigoData/ecoli_bliss.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1550" uniqueCount="10">
   <si>
     <t>RIF</t>
   </si>
@@ -85,7 +85,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -97,16 +97,24 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1786,10 +1794,10 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
       <c r="K1">
@@ -1797,10 +1805,10 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>2</v>
       </c>
       <c r="K2">
@@ -1808,10 +1816,10 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="A3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>3</v>
       </c>
       <c r="K3">
@@ -1819,10 +1827,10 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="A4" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>4</v>
       </c>
       <c r="K4">
@@ -1830,10 +1838,10 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="3" t="s">
+      <c r="A5" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>5</v>
       </c>
       <c r="K5">
@@ -1841,10 +1849,10 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="3" t="s">
+      <c r="A6" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>6</v>
       </c>
       <c r="K6">
@@ -1852,10 +1860,10 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="3" t="s">
+      <c r="A7" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>7</v>
       </c>
       <c r="K7">
@@ -1863,10 +1871,10 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="3" t="s">
+      <c r="A8" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>8</v>
       </c>
       <c r="K8">
@@ -1874,10 +1882,10 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="3" t="s">
+      <c r="A9" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>9</v>
       </c>
       <c r="K9">
@@ -1885,10 +1893,10 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" s="3" t="s">
+      <c r="A10" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>2</v>
       </c>
       <c r="K10">
@@ -1896,10 +1904,10 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" s="3" t="s">
+      <c r="A11" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>3</v>
       </c>
       <c r="K11">
@@ -1907,10 +1915,10 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" s="3" t="s">
+      <c r="A12" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>4</v>
       </c>
       <c r="K12">
@@ -1918,10 +1926,10 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" s="3" t="s">
+      <c r="A13" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>5</v>
       </c>
       <c r="K13">
@@ -1929,10 +1937,10 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B14" s="3" t="s">
+      <c r="A14" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="7" t="s">
         <v>6</v>
       </c>
       <c r="K14">
@@ -1940,10 +1948,10 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15" s="3" t="s">
+      <c r="A15" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="7" t="s">
         <v>7</v>
       </c>
       <c r="K15">
@@ -1951,10 +1959,10 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B16" s="3" t="s">
+      <c r="A16" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="7" t="s">
         <v>8</v>
       </c>
       <c r="K16">
@@ -1962,10 +1970,10 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B17" s="3" t="s">
+      <c r="A17" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="7" t="s">
         <v>9</v>
       </c>
       <c r="K17">
@@ -1973,10 +1981,10 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B18" s="3" t="s">
+      <c r="A18" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="7" t="s">
         <v>3</v>
       </c>
       <c r="K18">
@@ -1984,10 +1992,10 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B19" s="3" t="s">
+      <c r="A19" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="7" t="s">
         <v>4</v>
       </c>
       <c r="K19">
@@ -1995,10 +2003,10 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B20" s="3" t="s">
+      <c r="A20" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="7" t="s">
         <v>5</v>
       </c>
       <c r="K20">
@@ -2006,10 +2014,10 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B21" s="3" t="s">
+      <c r="A21" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" s="7" t="s">
         <v>6</v>
       </c>
       <c r="K21">
@@ -2017,10 +2025,10 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B22" s="3" t="s">
+      <c r="A22" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" s="7" t="s">
         <v>7</v>
       </c>
       <c r="K22">
@@ -2028,10 +2036,10 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B23" s="3" t="s">
+      <c r="A23" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" s="7" t="s">
         <v>8</v>
       </c>
       <c r="K23">
@@ -2039,10 +2047,10 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B24" s="3" t="s">
+      <c r="A24" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" s="7" t="s">
         <v>9</v>
       </c>
       <c r="K24">
@@ -2050,10 +2058,10 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B25" s="3" t="s">
+      <c r="A25" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="7" t="s">
         <v>4</v>
       </c>
       <c r="K25">
@@ -2061,10 +2069,10 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B26" s="3" t="s">
+      <c r="A26" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" s="7" t="s">
         <v>5</v>
       </c>
       <c r="K26">
@@ -2072,10 +2080,10 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B27" s="3" t="s">
+      <c r="A27" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" s="7" t="s">
         <v>6</v>
       </c>
       <c r="K27">
@@ -2083,10 +2091,10 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B28" s="3" t="s">
+      <c r="A28" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="7" t="s">
         <v>7</v>
       </c>
       <c r="K28">
@@ -2094,10 +2102,10 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B29" s="3" t="s">
+      <c r="A29" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29" s="7" t="s">
         <v>8</v>
       </c>
       <c r="K29">
@@ -2105,10 +2113,10 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B30" s="3" t="s">
+      <c r="A30" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30" s="7" t="s">
         <v>9</v>
       </c>
       <c r="K30">
@@ -2116,10 +2124,10 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B31" s="3" t="s">
+      <c r="A31" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" s="7" t="s">
         <v>5</v>
       </c>
       <c r="K31">
@@ -2127,10 +2135,10 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B32" s="3" t="s">
+      <c r="A32" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" s="7" t="s">
         <v>6</v>
       </c>
       <c r="K32">
@@ -2138,10 +2146,10 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B33" s="3" t="s">
+      <c r="A33" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" s="7" t="s">
         <v>7</v>
       </c>
       <c r="K33">
@@ -2149,10 +2157,10 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B34" s="3" t="s">
+      <c r="A34" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" s="7" t="s">
         <v>8</v>
       </c>
       <c r="K34">
@@ -2160,10 +2168,10 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B35" s="3" t="s">
+      <c r="A35" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" s="7" t="s">
         <v>9</v>
       </c>
       <c r="K35">
@@ -2171,10 +2179,10 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B36" s="3" t="s">
+      <c r="A36" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" s="7" t="s">
         <v>6</v>
       </c>
       <c r="K36">
@@ -2182,10 +2190,10 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B37" s="3" t="s">
+      <c r="A37" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" s="7" t="s">
         <v>7</v>
       </c>
       <c r="K37">
@@ -2193,10 +2201,10 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B38" s="3" t="s">
+      <c r="A38" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" s="7" t="s">
         <v>8</v>
       </c>
       <c r="K38">
@@ -2204,10 +2212,10 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B39" s="3" t="s">
+      <c r="A39" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39" s="7" t="s">
         <v>9</v>
       </c>
       <c r="K39">
@@ -2215,10 +2223,10 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B40" s="3" t="s">
+      <c r="A40" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40" s="7" t="s">
         <v>7</v>
       </c>
       <c r="K40">
@@ -2226,10 +2234,10 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B41" s="3" t="s">
+      <c r="A41" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41" s="7" t="s">
         <v>8</v>
       </c>
       <c r="K41">
@@ -2237,10 +2245,10 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B42" s="3" t="s">
+      <c r="A42" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42" s="7" t="s">
         <v>9</v>
       </c>
       <c r="K42">
@@ -2248,10 +2256,10 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B43" s="3" t="s">
+      <c r="A43" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43" s="7" t="s">
         <v>8</v>
       </c>
       <c r="K43">
@@ -2259,10 +2267,10 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B44" s="3" t="s">
+      <c r="A44" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B44" s="7" t="s">
         <v>9</v>
       </c>
       <c r="K44">
@@ -2270,10 +2278,10 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B45" s="3" t="s">
+      <c r="A45" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B45" s="7" t="s">
         <v>9</v>
       </c>
       <c r="K45">
@@ -2281,13 +2289,13 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C46" s="3" t="s">
+      <c r="A46" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C46" s="7" t="s">
         <v>9</v>
       </c>
       <c r="K46">
@@ -2295,13 +2303,13 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C47" s="3" t="s">
+      <c r="A47" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" s="7" t="s">
         <v>8</v>
       </c>
       <c r="K47">
@@ -2309,13 +2317,13 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C48" s="3" t="s">
+      <c r="A48" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C48" s="7" t="s">
         <v>6</v>
       </c>
       <c r="K48">
@@ -2323,13 +2331,13 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C49" s="3" t="s">
+      <c r="A49" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C49" s="7" t="s">
         <v>5</v>
       </c>
       <c r="K49">
@@ -2337,13 +2345,13 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C50" s="3" t="s">
+      <c r="A50" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C50" s="7" t="s">
         <v>7</v>
       </c>
       <c r="K50">
@@ -2351,13 +2359,13 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C51" s="3" t="s">
+      <c r="A51" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C51" s="7" t="s">
         <v>9</v>
       </c>
       <c r="K51">
@@ -2365,13 +2373,13 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C52" s="3" t="s">
+      <c r="A52" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C52" s="7" t="s">
         <v>8</v>
       </c>
       <c r="K52">
@@ -2379,13 +2387,13 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C53" s="3" t="s">
+      <c r="A53" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C53" s="7" t="s">
         <v>9</v>
       </c>
       <c r="K53">
@@ -2393,19 +2401,19 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E54" s="3" t="s">
+      <c r="A54" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E54" s="7" t="s">
         <v>9</v>
       </c>
       <c r="K54">
@@ -2413,19 +2421,19 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E55" s="3" t="s">
+      <c r="A55" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E55" s="7" t="s">
         <v>8</v>
       </c>
       <c r="K55">
@@ -2433,19 +2441,19 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E56" s="3" t="s">
+      <c r="A56" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E56" s="7" t="s">
         <v>6</v>
       </c>
       <c r="K56">
@@ -2453,19 +2461,19 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E57" s="3" t="s">
+      <c r="A57" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E57" s="7" t="s">
         <v>9</v>
       </c>
       <c r="K57">
@@ -2473,19 +2481,19 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E58" s="3" t="s">
+      <c r="A58" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58" s="7" t="s">
         <v>9</v>
       </c>
       <c r="K58">
@@ -2493,19 +2501,19 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E59" s="3" t="s">
+      <c r="A59" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E59" s="7" t="s">
         <v>6</v>
       </c>
       <c r="K59">
@@ -2513,19 +2521,19 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E60" s="3" t="s">
+      <c r="A60" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E60" s="7" t="s">
         <v>8</v>
       </c>
       <c r="K60">
@@ -2533,19 +2541,19 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E61" s="3" t="s">
+      <c r="A61" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E61" s="7" t="s">
         <v>9</v>
       </c>
       <c r="K61">
@@ -2553,25 +2561,25 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G62" s="3" t="s">
+      <c r="A62" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F62" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G62" s="7" t="s">
         <v>6</v>
       </c>
       <c r="K62">
@@ -2579,25 +2587,25 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F63" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G63" s="3" t="s">
+      <c r="A63" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F63" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G63" s="7" t="s">
         <v>7</v>
       </c>
       <c r="K63">
@@ -2605,25 +2613,25 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F64" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G64" s="3" t="s">
+      <c r="A64" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F64" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G64" s="7" t="s">
         <v>8</v>
       </c>
       <c r="K64">
@@ -2631,25 +2639,25 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E65" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F65" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G65" s="3" t="s">
+      <c r="A65" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F65" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G65" s="7" t="s">
         <v>9</v>
       </c>
       <c r="K65">
@@ -2657,25 +2665,25 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G66" s="3" t="s">
+      <c r="A66" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F66" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G66" s="7" t="s">
         <v>9</v>
       </c>
       <c r="K66">
@@ -2683,25 +2691,25 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E67" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F67" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G67" s="3" t="s">
+      <c r="A67" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E67" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F67" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G67" s="7" t="s">
         <v>9</v>
       </c>
       <c r="K67">
@@ -2709,25 +2717,25 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E68" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F68" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G68" s="3" t="s">
+      <c r="A68" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E68" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F68" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G68" s="7" t="s">
         <v>9</v>
       </c>
       <c r="K68">
@@ -2735,25 +2743,25 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F69" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G69" s="3" t="s">
+      <c r="A69" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E69" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F69" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G69" s="7" t="s">
         <v>9</v>
       </c>
       <c r="K69">
@@ -2761,31 +2769,31 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F70" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G70" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H70" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I70" s="3" t="s">
+      <c r="A70" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E70" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F70" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G70" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H70" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I70" s="7" t="s">
         <v>8</v>
       </c>
       <c r="K70">
@@ -2793,31 +2801,31 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E71" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F71" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G71" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H71" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I71" s="3" t="s">
+      <c r="A71" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E71" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F71" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G71" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H71" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I71" s="7" t="s">
         <v>9</v>
       </c>
       <c r="K71">
@@ -2825,31 +2833,31 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I72" s="3" t="s">
+      <c r="A72" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D72" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E72" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F72" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G72" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H72" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I72" s="7" t="s">
         <v>9</v>
       </c>
       <c r="K72">
@@ -2857,31 +2865,31 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E73" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F73" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G73" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H73" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I73" s="3" t="s">
+      <c r="A73" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E73" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F73" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G73" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H73" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I73" s="7" t="s">
         <v>9</v>
       </c>
       <c r="K73">
@@ -2889,31 +2897,31 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D74" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E74" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F74" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G74" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H74" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I74" s="3" t="s">
+      <c r="A74" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D74" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E74" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F74" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G74" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H74" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I74" s="7" t="s">
         <v>9</v>
       </c>
       <c r="K74">
@@ -2921,31 +2929,31 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E75" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F75" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G75" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H75" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I75" s="3" t="s">
+      <c r="A75" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D75" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E75" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F75" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G75" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H75" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I75" s="7" t="s">
         <v>9</v>
       </c>
       <c r="K75">
@@ -2953,31 +2961,31 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I76" s="3" t="s">
+      <c r="A76" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D76" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E76" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F76" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G76" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H76" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I76" s="7" t="s">
         <v>9</v>
       </c>
       <c r="K76">
@@ -2985,31 +2993,31 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D77" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E77" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F77" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G77" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H77" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I77" s="3" t="s">
+      <c r="A77" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D77" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E77" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F77" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G77" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H77" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I77" s="7" t="s">
         <v>9</v>
       </c>
       <c r="K77">
@@ -3017,31 +3025,31 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D78" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E78" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F78" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G78" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H78" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I78" s="3" t="s">
+      <c r="A78" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D78" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E78" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F78" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G78" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H78" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I78" s="7" t="s">
         <v>9</v>
       </c>
       <c r="K78">
@@ -3049,31 +3057,31 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D79" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E79" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F79" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G79" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H79" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I79" s="3" t="s">
+      <c r="A79" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D79" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E79" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F79" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G79" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H79" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I79" s="7" t="s">
         <v>9</v>
       </c>
       <c r="K79">
@@ -3081,34 +3089,34 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D80" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E80" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F80" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G80" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H80" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I80" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J80" s="3" t="s">
+      <c r="A80" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D80" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E80" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F80" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G80" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H80" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I80" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J80" s="7" t="s">
         <v>9</v>
       </c>
       <c r="K80">
